--- a/resources/상품명가공 키워드지우기 리스트.xlsx
+++ b/resources/상품명가공 키워드지우기 리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b7077b6f5aef07e8/minkun/pyCharmWP/productNameModifier/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{1ED74D3F-4CE2-4821-98F5-05C4C8E30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73882BB6-82E3-4E58-8BC3-A8AB7DE6AAD7}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{1ED74D3F-4CE2-4821-98F5-05C4C8E30855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CE45FF6-425F-4851-ABF8-980CA4A33EAB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="321">
   <si>
     <t>변경 후</t>
   </si>
@@ -585,6 +585,415 @@
   </si>
   <si>
     <t>실버미어</t>
+  </si>
+  <si>
+    <t>칠성</t>
+  </si>
+  <si>
+    <t>겜프</t>
+  </si>
+  <si>
+    <t>순샘</t>
+  </si>
+  <si>
+    <t>몰텐</t>
+  </si>
+  <si>
+    <t>벧엘</t>
+  </si>
+  <si>
+    <t>삼화</t>
+  </si>
+  <si>
+    <t>그린키퍼스</t>
+  </si>
+  <si>
+    <t>신광사</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>해피데이</t>
+  </si>
+  <si>
+    <t>대상금속</t>
+  </si>
+  <si>
+    <t>삼정</t>
+  </si>
+  <si>
+    <t>카시야</t>
+  </si>
+  <si>
+    <t>닛타쿠</t>
+  </si>
+  <si>
+    <t>한솔</t>
+  </si>
+  <si>
+    <t>M PET</t>
+  </si>
+  <si>
+    <t>깔끄미</t>
+  </si>
+  <si>
+    <t>굿프렌드</t>
+  </si>
+  <si>
+    <t>한양백향</t>
+  </si>
+  <si>
+    <t>도시바</t>
+  </si>
+  <si>
+    <t>앤틱</t>
+  </si>
+  <si>
+    <t>티마운트</t>
+  </si>
+  <si>
+    <t>대현</t>
+  </si>
+  <si>
+    <t>코렐</t>
+  </si>
+  <si>
+    <t>조흥</t>
+  </si>
+  <si>
+    <t>오공</t>
+  </si>
+  <si>
+    <t>듀라렉스</t>
+  </si>
+  <si>
+    <t>타파웨어</t>
+  </si>
+  <si>
+    <t>모문풍지</t>
+  </si>
+  <si>
+    <t>꿈나무</t>
+  </si>
+  <si>
+    <t>네오</t>
+  </si>
+  <si>
+    <t>파사바체</t>
+  </si>
+  <si>
+    <t>폴라프</t>
+  </si>
+  <si>
+    <t>실리만</t>
+  </si>
+  <si>
+    <t>세베라</t>
+  </si>
+  <si>
+    <t>뉴 벨버드</t>
+  </si>
+  <si>
+    <t>시노</t>
+  </si>
+  <si>
+    <t>파미레</t>
+  </si>
+  <si>
+    <t>시노글라스</t>
+  </si>
+  <si>
+    <t>하리오</t>
+  </si>
+  <si>
+    <t>조지루시</t>
+  </si>
+  <si>
+    <t>세화바운티</t>
+  </si>
+  <si>
+    <t>코렐 엘레강스</t>
+  </si>
+  <si>
+    <t>후지스</t>
+  </si>
+  <si>
+    <t>루미낙</t>
+  </si>
+  <si>
+    <t>셀토스</t>
+  </si>
+  <si>
+    <t>신원</t>
+  </si>
+  <si>
+    <t>KING</t>
+  </si>
+  <si>
+    <t>에로스</t>
+  </si>
+  <si>
+    <t>스토닉</t>
+  </si>
+  <si>
+    <t>캉가루</t>
+  </si>
+  <si>
+    <t>리빙셰프</t>
+  </si>
+  <si>
+    <t>진선미</t>
+  </si>
+  <si>
+    <t>화신</t>
+  </si>
+  <si>
+    <t>오성</t>
+  </si>
+  <si>
+    <t>엘림앤키친</t>
+  </si>
+  <si>
+    <t>모던트레이</t>
+  </si>
+  <si>
+    <t>컴배트</t>
+  </si>
+  <si>
+    <t>일조</t>
+  </si>
+  <si>
+    <t>코미코모</t>
+  </si>
+  <si>
+    <t>링자바라</t>
+  </si>
+  <si>
+    <t>영주</t>
+  </si>
+  <si>
+    <t>타파</t>
+  </si>
+  <si>
+    <t>나이롱비</t>
+  </si>
+  <si>
+    <t>평화</t>
+  </si>
+  <si>
+    <t>레이스업</t>
+  </si>
+  <si>
+    <t>훌라훌라</t>
+  </si>
+  <si>
+    <t>타파웨원닥스</t>
+  </si>
+  <si>
+    <t>퀸센스</t>
+  </si>
+  <si>
+    <t>경원</t>
+  </si>
+  <si>
+    <t>에찌모토</t>
+  </si>
+  <si>
+    <t>테비</t>
+  </si>
+  <si>
+    <t>동림</t>
+  </si>
+  <si>
+    <t>디월트</t>
+  </si>
+  <si>
+    <t>체리쉬</t>
+  </si>
+  <si>
+    <t>키모니</t>
+  </si>
+  <si>
+    <t>펫퍼스</t>
+  </si>
+  <si>
+    <t>마끼다</t>
+  </si>
+  <si>
+    <t>봉돌</t>
+  </si>
+  <si>
+    <t>디펜드</t>
+  </si>
+  <si>
+    <t>이달리</t>
+  </si>
+  <si>
+    <t>로싸원반</t>
+  </si>
+  <si>
+    <t>드봉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라비아</t>
+  </si>
+  <si>
+    <t>비젼</t>
+  </si>
+  <si>
+    <t>인벳</t>
+  </si>
+  <si>
+    <t>프랑스비젼</t>
+  </si>
+  <si>
+    <t>미니정</t>
+  </si>
+  <si>
+    <t>BENTOY</t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>스밋코구라시</t>
+  </si>
+  <si>
+    <t>워터맨</t>
+  </si>
+  <si>
+    <t>문화</t>
+  </si>
+  <si>
+    <t>TOYO</t>
+  </si>
+  <si>
+    <t>제브라</t>
+  </si>
+  <si>
+    <t>펜텔</t>
+  </si>
+  <si>
+    <t>파버카스텔</t>
+  </si>
+  <si>
+    <t>피에르가르뎅</t>
+  </si>
+  <si>
+    <t>크라프트지</t>
+  </si>
+  <si>
+    <t>명진</t>
+  </si>
+  <si>
+    <t>아이비스</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>삼익악기</t>
+  </si>
+  <si>
+    <t>스테들러</t>
+  </si>
+  <si>
+    <t>모노그래프</t>
+  </si>
+  <si>
+    <t>몰랑</t>
+  </si>
+  <si>
+    <t>당근</t>
+  </si>
+  <si>
+    <t>A플러스</t>
+  </si>
+  <si>
+    <t>닉와일드</t>
+  </si>
+  <si>
+    <t>펜파우치</t>
+  </si>
+  <si>
+    <t>톰보우</t>
+  </si>
+  <si>
+    <t>도메모</t>
+  </si>
+  <si>
+    <t>별밤</t>
+  </si>
+  <si>
+    <t>오징징</t>
+  </si>
+  <si>
+    <t>비팬시</t>
+  </si>
+  <si>
+    <t>아이코닉</t>
+  </si>
+  <si>
+    <t>투버클</t>
+  </si>
+  <si>
+    <t>쓰임과끌림</t>
+  </si>
+  <si>
+    <t>CANDOO</t>
+  </si>
+  <si>
+    <t>별밤디자인</t>
+  </si>
+  <si>
+    <t>동아</t>
+  </si>
+  <si>
+    <t>이글코리아</t>
+  </si>
+  <si>
+    <t>딕피스트</t>
+  </si>
+  <si>
+    <t>프린텍</t>
+  </si>
+  <si>
+    <t>누사인</t>
+  </si>
+  <si>
+    <t>핑크풋</t>
+  </si>
+  <si>
+    <t>상철</t>
+  </si>
+  <si>
+    <t>Coms</t>
+  </si>
+  <si>
+    <t>삼익</t>
+  </si>
+  <si>
+    <t>마감찬스</t>
+  </si>
+  <si>
+    <t>자일러</t>
+  </si>
+  <si>
+    <t>하이폴러미</t>
+  </si>
+  <si>
+    <t>클릭이레이져</t>
+  </si>
+  <si>
+    <t>모노</t>
+  </si>
+  <si>
+    <t>아인</t>
+  </si>
+  <si>
+    <t>스모키2</t>
   </si>
 </sst>
 </file>
@@ -960,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B189"/>
+  <dimension ref="A1:B333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1920,6 +2329,726 @@
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
